--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/040_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/040_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R5a91069ce02f47d8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R53fa4f457172407e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/040_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/040_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R53fa4f457172407e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="Raa97e5a248ab4a4b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/040_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/040_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="Raa97e5a248ab4a4b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R2fba8cf03a7a4159"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/040_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/040_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R2fba8cf03a7a4159"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R46dbd629cdc54038"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/040_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/040_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R46dbd629cdc54038"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R102fd82f4b504aa2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/040_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/040_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R102fd82f4b504aa2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R8bc5590ecaf443c9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/040_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/040_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R8bc5590ecaf443c9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R5669a8fa9ae64b69"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/040_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/040_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R5669a8fa9ae64b69"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R47e9b405c8c44bb4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/040_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/040_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R47e9b405c8c44bb4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R8e4a7a3ed1ed4d32"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/040_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/040_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R8e4a7a3ed1ed4d32"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R0a15356852994597"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/040_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/040_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R0a15356852994597"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R2a0fe1fff3d74bf6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,24 +30,24 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/040_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/040_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R2a0fe1fff3d74bf6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R522fa368a280462b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,24 +30,24 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/040_AdvancedFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/040_AdvancedFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R522fa368a280462b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Advanced Formulas" sheetId="1" r:id="R3167672006b34e3e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
